--- a/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,58 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41090</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40724</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,9 +747,12 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,8 +995,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -993,17 +1020,20 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,17 +1056,20 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1071,31 +1105,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1104,28 +1141,31 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1148,9 +1188,12 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1170,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1181,9 +1224,12 @@
       <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1214,9 +1260,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,9 +1296,12 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1269,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1280,9 +1332,12 @@
       <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1302,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1313,9 +1368,12 @@
       <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1467,20 +1537,23 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1500,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1511,9 +1584,12 @@
       <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,9 +1620,12 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1566,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1577,47 +1656,53 @@
       <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41090</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40724</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,8 +1732,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1678,9 +1765,12 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,9 +1801,12 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1837,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1873,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1909,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,9 +1945,12 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,9 +1981,12 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1909,9 +2017,12 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1942,9 +2053,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,9 +2125,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2041,9 +2161,12 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,9 +2197,12 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2107,9 +2233,12 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,13 +2268,14 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2170,53 +2301,59 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2231,25 +2368,28 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -2258,20 +2398,23 @@
         <v>400</v>
       </c>
       <c r="I60" s="3">
+        <v>400</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2297,14 +2440,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2335,9 +2481,12 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,20 +2589,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -2456,20 +2614,23 @@
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,14 +2785,17 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E72" s="3">
         <v>-600</v>
@@ -2633,23 +2807,26 @@
         <v>-600</v>
       </c>
       <c r="H72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I72" s="3">
         <v>-500</v>
       </c>
       <c r="J72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,20 +2929,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
@@ -2768,20 +2954,23 @@
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,47 +3001,53 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41090</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40724</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2872,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -2883,9 +3078,12 @@
       <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,8 +3097,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2931,9 +3130,12 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,9 +3310,12 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3129,9 +3346,12 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,8 +3365,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3177,9 +3398,12 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,9 +3470,12 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3276,9 +3506,12 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,9 +3666,12 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3453,12 +3699,15 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3489,9 +3738,12 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3522,7 +3774,10 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,61 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41090</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40724</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,13 +727,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -750,17 +753,20 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -786,17 +792,20 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>200</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +926,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -946,32 +965,35 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,16 +1021,17 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1023,17 +1049,20 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1041,13 +1070,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1059,17 +1088,20 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1098,8 +1131,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1108,56 +1141,62 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1167,8 +1206,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1191,17 +1230,20 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1216,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1227,9 +1269,12 @@
       <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1263,9 +1308,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,17 +1347,20 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1324,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1335,17 +1386,20 @@
       <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1360,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1371,9 +1425,12 @@
       <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1530,8 +1599,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1540,28 +1609,31 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1576,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1587,9 +1659,12 @@
       <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,17 +1698,20 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1648,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1659,50 +1737,56 @@
       <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41090</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40724</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,16 +1818,17 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1768,9 +1854,12 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,9 +1893,12 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1816,20 +1908,20 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1840,32 +1932,35 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1876,9 +1971,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1888,17 +1986,17 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1912,17 +2010,20 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1948,9 +2049,12 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,32 +2088,35 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2020,32 +2127,35 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2056,9 +2166,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2164,9 +2283,12 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,17 +2322,20 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2236,9 +2361,12 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,13 +2398,14 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2304,9 +2434,12 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2320,43 +2453,46 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2371,14 +2507,17 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2392,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -2401,20 +2540,23 @@
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2443,14 +2585,17 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2458,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2484,9 +2629,12 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,9 +2746,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2602,13 +2759,13 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -2617,20 +2774,23 @@
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,17 +2958,20 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-700</v>
+        <v>-4300</v>
       </c>
       <c r="E72" s="3">
-        <v>-600</v>
+        <v>-4200</v>
       </c>
       <c r="F72" s="3">
         <v>-600</v>
@@ -2810,23 +2983,26 @@
         <v>-600</v>
       </c>
       <c r="I72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J72" s="3">
         <v>-500</v>
       </c>
       <c r="K72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,23 +3114,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>1600</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -2957,20 +3142,23 @@
         <v>-400</v>
       </c>
       <c r="J76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,58 +3192,64 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41090</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40724</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3070,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3081,9 +3275,12 @@
       <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,31 +3295,32 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3133,9 +3331,12 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,17 +3526,20 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3349,9 +3565,12 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,8 +3585,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3377,20 +3597,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3401,9 +3621,12 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,9 +3699,12 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3485,20 +3714,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3509,9 +3738,12 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,17 +3911,20 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3702,12 +3947,15 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3741,9 +3989,12 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3751,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3777,7 +4028,10 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,64 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41090</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40724</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,16 +730,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -756,9 +759,12 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,11 +772,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -795,9 +801,12 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,11 +814,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,18 +945,21 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -956,8 +975,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -968,9 +987,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,8 @@
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -995,8 +1017,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,20 +1047,21 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1052,17 +1078,20 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,16 +1099,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1091,17 +1120,20 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,8 +1149,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1126,16 +1159,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1144,20 +1177,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1165,11 +1201,11 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1182,21 +1218,24 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1209,8 +1248,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1233,9 +1272,12 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1243,11 +1285,11 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1261,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1272,9 +1314,12 @@
       <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1311,9 +1356,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,9 +1398,12 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1360,11 +1411,11 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1378,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1389,9 +1440,12 @@
       <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1399,11 +1453,11 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1417,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1428,9 +1482,12 @@
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,9 +1650,12 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1594,16 +1663,16 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1612,20 +1681,23 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1633,11 +1705,11 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1651,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -1662,9 +1734,12 @@
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,9 +1776,12 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1711,11 +1789,11 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1729,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -1740,53 +1818,59 @@
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41090</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40724</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,19 +1904,20 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1857,9 +1943,12 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,9 +1985,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2000,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -1923,8 +2015,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1935,9 +2027,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,8 +2042,8 @@
       <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -1962,8 +2057,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1974,9 +2069,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1986,20 +2084,20 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2013,20 +2111,23 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="E46" s="3">
         <v>900</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2052,9 +2153,12 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2091,21 +2195,24 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2118,8 +2225,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2130,21 +2237,24 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2157,8 +2267,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2169,9 +2279,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,32 +2363,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2286,9 +2405,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,9 +2447,12 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2335,11 +2460,11 @@
         <v>1700</v>
       </c>
       <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -2364,9 +2489,12 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,8 +2528,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2437,18 +2567,21 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -2456,29 +2589,32 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2488,14 +2624,14 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -2510,23 +2646,26 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -2534,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -2543,20 +2682,23 @@
         <v>400</v>
       </c>
       <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2588,26 +2730,29 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2620,8 +2765,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2632,9 +2777,12 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,26 +2903,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -2777,20 +2934,23 @@
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,20 +3131,23 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4200</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-600</v>
       </c>
       <c r="G72" s="3">
         <v>-600</v>
@@ -2986,23 +3159,26 @@
         <v>-600</v>
       </c>
       <c r="J72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
       </c>
       <c r="L72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,26 +3299,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
@@ -3145,20 +3330,23 @@
         <v>-400</v>
       </c>
       <c r="K76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,53 +3383,59 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41090</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40724</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3249,11 +3443,11 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3267,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -3278,9 +3472,12 @@
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,8 +3493,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3307,8 +3505,8 @@
       <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3322,8 +3520,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3334,9 +3532,12 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,21 +3742,24 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -3568,9 +3784,12 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,8 +3805,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3597,8 +3817,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3612,8 +3832,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3624,9 +3844,12 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,9 +3928,12 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3714,8 +3943,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3729,8 +3958,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3741,9 +3970,12 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,21 +4156,24 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3950,12 +4195,15 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3992,21 +4240,24 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4031,7 +4282,10 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PGID_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,67 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41090</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40724</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,19 +733,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -762,9 +765,12 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,11 +781,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -804,9 +810,12 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,11 +826,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -846,9 +855,12 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,9 +919,12 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,21 +964,24 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +997,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -990,14 +1009,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1005,8 +1027,8 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1020,8 +1042,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1032,9 +1054,12 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,23 +1073,24 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1081,17 +1107,20 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,16 +1131,16 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -1123,17 +1152,20 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1150,8 +1182,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1162,16 +1195,16 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1180,35 +1213,38 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1221,21 +1257,24 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1251,8 +1290,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1275,24 +1314,27 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1306,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1317,9 +1359,12 @@
       <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1359,9 +1404,12 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1401,24 +1449,27 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1432,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1443,24 +1494,27 @@
       <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1474,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1485,9 +1539,12 @@
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1527,9 +1584,12 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1569,9 +1629,12 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1611,9 +1674,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1653,9 +1719,12 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1666,16 +1735,16 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1684,35 +1753,38 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1726,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1737,9 +1809,12 @@
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1779,24 +1854,27 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1810,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1821,56 +1899,62 @@
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41090</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40724</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1887,8 +1971,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1905,22 +1990,23 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1946,9 +2032,12 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1988,9 +2077,12 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2095,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2018,8 +2110,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2030,14 +2122,17 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
@@ -2045,8 +2140,8 @@
       <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2060,8 +2155,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2072,9 +2167,12 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2087,20 +2185,20 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2114,23 +2212,26 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>900</v>
       </c>
       <c r="F46" s="3">
         <v>900</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2156,9 +2257,12 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2198,9 +2302,12 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2208,14 +2315,14 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2228,8 +2335,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2240,9 +2347,12 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,14 +2360,14 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2270,8 +2380,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2282,9 +2392,12 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2324,9 +2437,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2366,17 +2482,20 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2393,8 +2512,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2408,9 +2527,12 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2450,24 +2572,27 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
         <v>1700</v>
       </c>
       <c r="F54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -2492,9 +2617,12 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2511,8 +2639,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2529,8 +2658,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2570,9 +2700,12 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2580,11 +2713,11 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -2592,29 +2725,32 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2627,14 +2763,14 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2649,14 +2785,17 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2664,11 +2803,11 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
@@ -2676,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -2685,28 +2824,31 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2733,29 +2875,32 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2768,8 +2913,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2780,9 +2925,12 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2822,9 +2970,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2864,9 +3015,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2906,29 +3060,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
@@ -2937,20 +3094,23 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
+        <v>400</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2967,8 +3127,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3008,9 +3169,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3050,9 +3214,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3092,9 +3259,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3134,23 +3304,26 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-600</v>
       </c>
       <c r="H72" s="3">
         <v>-600</v>
@@ -3162,23 +3335,26 @@
         <v>-600</v>
       </c>
       <c r="K72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
       </c>
       <c r="M72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3218,9 +3394,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3260,9 +3439,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3302,29 +3484,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
@@ -3333,20 +3518,23 @@
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3386,71 +3574,77 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41090</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40724</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -3464,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3475,9 +3669,12 @@
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3494,13 +3691,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3508,8 +3706,8 @@
       <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3523,8 +3721,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3535,9 +3733,12 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3577,9 +3778,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3619,9 +3823,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3661,9 +3868,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3703,9 +3913,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3745,24 +3958,27 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3787,9 +4003,12 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3806,13 +4025,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3820,8 +4040,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3835,8 +4055,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3847,9 +4067,12 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3889,9 +4112,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3931,9 +4157,12 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3941,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3961,8 +4190,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3973,9 +4202,12 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3992,8 +4224,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4033,9 +4266,12 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4075,9 +4311,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4117,9 +4356,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4159,24 +4401,27 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4198,12 +4443,15 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4243,24 +4491,27 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4285,7 +4536,10 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
